--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>91.81975677238766</v>
+        <v>153.0704204209507</v>
       </c>
       <c r="R2">
-        <v>91.81975677238766</v>
+        <v>1377.633783788556</v>
       </c>
       <c r="S2">
-        <v>0.001029039780172002</v>
+        <v>0.001440041420597953</v>
       </c>
       <c r="T2">
-        <v>0.001029039780172002</v>
+        <v>0.001440041420597953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>3266.543037499347</v>
+        <v>4581.558920139743</v>
       </c>
       <c r="R3">
-        <v>3266.543037499347</v>
+        <v>41234.03028125769</v>
       </c>
       <c r="S3">
-        <v>0.03660870870703029</v>
+        <v>0.04310195658813417</v>
       </c>
       <c r="T3">
-        <v>0.03660870870703029</v>
+        <v>0.04310195658813416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>1188.857619923836</v>
+        <v>1956.719404378986</v>
       </c>
       <c r="R4">
-        <v>1188.857619923836</v>
+        <v>17610.47463941087</v>
       </c>
       <c r="S4">
-        <v>0.0133237314807409</v>
+        <v>0.01840823970460482</v>
       </c>
       <c r="T4">
-        <v>0.0133237314807409</v>
+        <v>0.01840823970460482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>376.6168414266664</v>
+        <v>629.1077111291715</v>
       </c>
       <c r="R5">
-        <v>376.6168414266664</v>
+        <v>5661.969400162544</v>
       </c>
       <c r="S5">
-        <v>0.004220809609324918</v>
+        <v>0.005918460010446169</v>
       </c>
       <c r="T5">
-        <v>0.004220809609324918</v>
+        <v>0.005918460010446168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>824.0001521644737</v>
+        <v>990.5541816511394</v>
       </c>
       <c r="R6">
-        <v>824.0001521644737</v>
+        <v>8914.987634860254</v>
       </c>
       <c r="S6">
-        <v>0.009234711191263123</v>
+        <v>0.009318841922569867</v>
       </c>
       <c r="T6">
-        <v>0.009234711191263123</v>
+        <v>0.009318841922569869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>29314.30069700097</v>
+        <v>29648.33005844642</v>
       </c>
       <c r="R7">
-        <v>29314.30069700097</v>
+        <v>266834.9705260178</v>
       </c>
       <c r="S7">
-        <v>0.3285304013592132</v>
+        <v>0.2789227547576433</v>
       </c>
       <c r="T7">
-        <v>0.3285304013592132</v>
+        <v>0.2789227547576433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>10668.93329011441</v>
+        <v>12662.38495324761</v>
       </c>
       <c r="R8">
-        <v>10668.93329011441</v>
+        <v>113961.4645792285</v>
       </c>
       <c r="S8">
-        <v>0.1195685673045766</v>
+        <v>0.1191239872869462</v>
       </c>
       <c r="T8">
-        <v>0.1195685673045766</v>
+        <v>0.1191239872869462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>3379.799136394584</v>
+        <v>4071.101864450655</v>
       </c>
       <c r="R9">
-        <v>3379.799136394584</v>
+        <v>36639.9167800559</v>
       </c>
       <c r="S9">
-        <v>0.03787798925412647</v>
+        <v>0.0382997269894484</v>
       </c>
       <c r="T9">
-        <v>0.03787798925412647</v>
+        <v>0.03829972698944841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>503.6547771962137</v>
+        <v>712.8944352538899</v>
       </c>
       <c r="R10">
-        <v>503.6547771962137</v>
+        <v>6416.04991728501</v>
       </c>
       <c r="S10">
-        <v>0.00564454556869867</v>
+        <v>0.006706700827345984</v>
       </c>
       <c r="T10">
-        <v>0.00564454556869867</v>
+        <v>0.006706700827345984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>17917.82143174147</v>
+        <v>21337.68137549589</v>
       </c>
       <c r="R11">
-        <v>17917.82143174147</v>
+        <v>192039.132379463</v>
       </c>
       <c r="S11">
-        <v>0.2008081013870123</v>
+        <v>0.2007386202751292</v>
       </c>
       <c r="T11">
-        <v>0.2008081013870123</v>
+        <v>0.2007386202751292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>6521.187168520421</v>
+        <v>9113.023737041758</v>
       </c>
       <c r="R12">
-        <v>6521.187168520421</v>
+        <v>82017.21363337584</v>
       </c>
       <c r="S12">
-        <v>0.07308406432604227</v>
+        <v>0.08573264261078838</v>
       </c>
       <c r="T12">
-        <v>0.07308406432604227</v>
+        <v>0.08573264261078838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>2065.839401288113</v>
+        <v>2929.941560269693</v>
       </c>
       <c r="R13">
-        <v>2065.839401288113</v>
+        <v>26369.47404242724</v>
       </c>
       <c r="S13">
-        <v>0.02315221688772178</v>
+        <v>0.02756402703485532</v>
       </c>
       <c r="T13">
-        <v>0.02315221688772178</v>
+        <v>0.02756402703485532</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>244.4605633063038</v>
+        <v>366.1223873003686</v>
       </c>
       <c r="R14">
-        <v>244.4605633063038</v>
+        <v>3295.101485703317</v>
       </c>
       <c r="S14">
-        <v>0.002739711508374333</v>
+        <v>0.00344437155964442</v>
       </c>
       <c r="T14">
-        <v>0.002739711508374333</v>
+        <v>0.00344437155964442</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>8696.831478119473</v>
+        <v>10958.42870742697</v>
       </c>
       <c r="R15">
-        <v>8696.831478119473</v>
+        <v>98625.85836684277</v>
       </c>
       <c r="S15">
-        <v>0.09746688367539109</v>
+        <v>0.1030936689137404</v>
       </c>
       <c r="T15">
-        <v>0.09746688367539109</v>
+        <v>0.1030936689137404</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>3165.209903332823</v>
+        <v>4680.190840516803</v>
       </c>
       <c r="R16">
-        <v>3165.209903332823</v>
+        <v>42121.71756465123</v>
       </c>
       <c r="S16">
-        <v>0.03547305087289608</v>
+        <v>0.04402985663796408</v>
       </c>
       <c r="T16">
-        <v>0.03547305087289608</v>
+        <v>0.04402985663796408</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>1002.703213797782</v>
+        <v>1504.734986905137</v>
       </c>
       <c r="R17">
-        <v>1002.703213797782</v>
+        <v>13542.61488214623</v>
       </c>
       <c r="S17">
-        <v>0.01123746708741579</v>
+        <v>0.01415610346014138</v>
       </c>
       <c r="T17">
-        <v>0.01123746708741579</v>
+        <v>0.01415610346014138</v>
       </c>
     </row>
   </sheetData>
